--- a/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_lava_1_1.xlsx
+++ b/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_lava_1_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="767">
   <si>
     <t>zh_CN</t>
   </si>
@@ -789,6 +789,1538 @@
   </si>
   <si>
     <t xml:space="preserve">[name="炎熔"]嘿，果然还是没我不行嘛，这个笨蛋姐姐。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a.m. 11:10 天気/晴天
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ロドス本艦 第二船室 オペレーター生活エリア
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]スー――
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]フー……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]（頭を空っぽにして、雑念を取り除け。）
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]ふぅ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]（よし、問題ない。）
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]（心臓はバクバクしてないし、感情も落ち着いてる……大丈夫だ、ラヴァ、オマエならやれる！）
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]（今度こそキレずにちゃんとハイビスと話ができるはずだ！）
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]あっ、ラヴァちゃーん、ちょうどいいところに来た！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]今日も健康食を用意したから、ちゃんと食べるんだよ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]あぁ？　ウザい。健康食だか何だか知らないが、あんなもん毎日食べてらんないんだよ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]――スーッ――
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]（ダメだダメだ、ラヴァ。そんな話し方しちゃダメだろ。）
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]（我慢しろ、オマエの大占い師の意志でもって、己の感情を抑えるんだ……）
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]（心を落ち着かせろ、心頭滅却……）
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]……ふぅ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]えっと、違うんだ、アタシが言いたいのはな――
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]毎日健康食ばかりだと、ちょっと飽きちゃうなって……別にオマエがウザいって意味じゃないんだ、あんまりマジに捉えないでくれ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]ハハッ、何おかしなこと言ってるの？　ラヴァちゃんがお姉ちゃんのことをウザいなんて思うはずないでしょ～。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]はい、今日のお昼ご飯。ちゃんと残さず食べるんだよ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]最近は寒くなってきたから、こうやって栄養バランスの取れた食事をしないと、風邪ひいちゃうんだからね？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]おえっ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]ん？　どうしたの？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]あのさ……これ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]味についてはひとまず置いといて……トマトはアタシが一番嫌いな食べ物だって知ってるよな？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]うん、もちろん知ってるよ？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]だったらなんで……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]なんでこんなにトマト煮が入ってんだよ！？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]もう、怒らないの。それはもちろん、トマトが栄養たっぷりだからだよ～。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]私知ってるからね。ラヴァちゃんったら嫌いなものをいつもこっそりクルースちゃんのお皿に移してるでしょ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]それに、最近お肉ばっかりで全くお野菜食べてないでしょ、違う？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]好き嫌いしちゃいけないよ！　ラヴァちゃんみたいに言うことを聞かない「悪い子」には、お仕置きも厳しくしないとね！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ハイビスカス"]今日はラヴァちゃんが食べ終わるまで見張ってるからね！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]（キレちゃダメだキレちゃダメだキレちゃダメだ。）
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]キレちゃ……あああダメだ我慢できないもう無理だああ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]いっつもいっつも！　アタシを！　子ども扱いするんじゃねぇぇ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]はぁ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]なんでまたこうなっちまったんだ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]喧嘩なんてするつもりなかったのに、人を怒らせる天才なのかアイツは……嫌いなものをああやって無理やり食べさせようとするなんて――おえっ、今思い出しても吐き気がする。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]はぁ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]まぁ、結局は怒りを抑えられなかったアタシが悪いんだけど……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クオーラ"]なになにー？　ラヴァ、誰かにイジメられたの？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クオーラ"]誰がやったか教えて、ボクがそいつをボコってきてあげるから！　人をイジメる悪いヤツはボクがギッタンギッタンにするよ！　こーんなふうにね――フンッ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]うわっ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]無闇にバットを振り回すなよ、危ないだろ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]ていうか、確かこないだドクターに、艦内でバットで人を殴るのは禁止だって言われただろ？　罰として反省文を書かされたってのにまだ懲りてないのか？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クオーラ"]あ、そうだった！　うぅ……反省文は嫌だ、もう書きたくない！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クオーラ"]でも大丈夫、バットじゃなくてもできるからさ！　ほら、リュックでも悪人をボコれるよ！　ボクのリュックはすっごく便利なんだ、アーミヤたちもすごいって褒めてくれたんだよ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クオーラ"]だからラヴァも心配しないで、悪人退治はボクに任せてよ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]別にアタシは心配なんてしてないんだけど……それよりほら、もう暴れるなって。また見つかったら怒られるぞ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]ていうか、アタシは誰にもイジメられてないから。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クオーラ"]ホントに？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]本当だ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クオーラ"]（じぃー……）
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クオーラ"]ラヴァの嘘つき！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]はあ？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クオーラ"]だって悲しそうな顔してるよ？　イジメられてないなら、どうしてそんな顔してるの？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]悲しそう？　ア……アタシが？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]ありえない、オマエの見間違いだ！　アタシが悲しむなんて――
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クオーラ"]ホントだよ、ボク見間違いなんかしないもん！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クオーラ"]ラヴァの眉間に、前にピアノのフタで指を挟んだ時と同じくらい、シワが寄ってたよ！　すごくツラそうだった！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]大げさだよ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クオーラ"]ボクの言ってること、間違ってないでしょ！？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]……うっ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]わかった。正しいってことにしといてやるよ。でもそんなに大したことじゃないんだ。えーっと、ハイビスの奴とちょっと揉めただけだから。いつものことだよ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クオーラ"]あーっ、またハイビスお姉ちゃんとケンカしたのー？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クオーラ"]うーん、ハイビスお姉ちゃんが相手だったら、ボクは力になれないや……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]なんでだ？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クオーラ"]だってハイビスお姉ちゃんは悪人じゃないもん。検査をしてくれた時もすっごく優しかったし、おまけにケーキまでくれたんだよ！　あのケーキ、とーっても美味しかったんだから！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]チッ、アイツいい子ぶりやがって……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]ケーキがなんだってんだ、そのくらいアタシだって作れるさ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]それにアイツのお菓子作りの腕前といったら……食べられるレベルのケーキが作れるようになるまでに、アイツがどれだけ失敗したか知ってるか？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]失敗したケーキも、捨てるのがもったいないって言って、無理矢理アタシに食べさせるんだ。酷くないか？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クオーラ"]んー……？　よくわかんない！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クオーラ"]ケーキがいっぱい食べられるってこと？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]そういうことじゃない！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]はぁ……もういい、オマエに言っても仕方ない。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]とにかく！　もしオマエにも兄弟姉妹がいたら、姉なんて生き物がどれだけウザいかきっとわかるはずだ。特にハイビスなんて、偉そうだし、強引だし、嫌いな野菜を食わせようとするし……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クオーラ"]……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]……おい、なんで急に黙り込むんだ？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クオーラ"]うーん、なんて言うか……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]ん？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クオーラ"]なんか、いいなぁ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]あぁ？　何がいいんだよ！？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クオーラ"]いいないいなぁ、きょうだいかぁ……ボクも欲しいなぁ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クオーラ"]ドクターにボクのきょうだいになってってお願いしてもいいけど、でもそれってラヴァとハイビスお姉ちゃんの関係とはちょっと違う気がするよね？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]うーん、それは、確かに……違うな。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クオーラ"]やっぱり……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クオーラ"]ラヴァ、ボクいいこと思いついたよ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]なんだ？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クオーラ"]ハイビスお姉ちゃんをボクにくれる？　ボクのお姉ちゃんになってもらうから！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]ブッ――！！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]ゴホッ！　ゴホゴホゴホッ！　……オ、オマエ、いきなり何バカなこと言い出すんだ！？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クオーラ"]バカなことじゃないよ、ボク真剣に言ってるんだよ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]オマエわかってんのか？　実の姉妹ってのは血が繋がってるんだ。オマエがいくら欲しいって言ったって、あげられるようなモンじゃないんだ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クオーラ"]えーそんなのどうだっていいよ、血の繋がりがあるかなんて、ボク気にしないもん！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]そんなこと言っても無理なものは無理なんだ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クオーラ"]なんで無理なの？　おーねーがーいー！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クオーラ"]ラヴァだって、いっつもハイビスお姉ちゃんのことを天敵だとか、悪の化身だとか言ってるでしょ？　ラヴァがいらないんだったら、ボクにくれたっていいじゃない！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]いやそれは……アタシは……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]ダメだ。とにかくダメなんだ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クオーラ"]どうして？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]どうしてもなにもない！　ダメったらダメだ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クオーラ"]ラヴァのケチ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]なんとでも言え！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クオーラ"]はぁ、仕方ないなぁ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クオーラ"]でもさ……ラヴァはどうしていつも、ハイビスお姉ちゃんとケンカしちゃうの？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クオーラ"]フェンが言ってたよ。ラヴァが一緒のチームに入るってなった時、ハイビスお姉ちゃんを見るなり抜けるって言い出しそうだったって——それってホントなの？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]フェンの奴、そんなことまでオマエに話してたのか……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クオーラ"]つまりホントだってこと？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]ああ、本当だ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クオーラ"]うーん……でも変だよね、ハイビスお姉ちゃんがそのチームにいることラヴァは知らなかったの？　あれれ？　二人は一緒にロドスに来たんじゃないの？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]なんでそんなの気にするんだよ、その好奇心はどっから来るんだ？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クオーラ"]教えて教えてー！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]ゆ、揺らすなって……わ、わかったから。教えればいいんだろ？　めんどくさいな、でも別に隠しとくようなことでもないか。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]アタシとハイビスは確かに一緒に家を出た。だけど、途中でちょっとした事故が起きたんだ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]実は……コホンッ！　まぁつまり途中でアイツとケンカになって、それでアタシたちは別々になっちまったんだ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クオーラ"]ぜんっぜん事故じゃないでしょ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]うっさい！　全然クールじゃないってのはわかってる！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]ケンカの原因は、何だったかな？　思い出せないな……まぁいい。とにかくケンカした後、腹の虫がおさまらず、気晴らしに散歩でもしようとしたんだけど、うっかり遠くまで行っちゃって……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]荒野はどこも同じような景色だろ？　アタシが散歩してたのは標識があるような道路じゃなかったし。それで……その……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クオーラ"]うっそー！？　まさか遠くまで行ってそのまま迷子になったの？　荒野で一人？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]ああ。まあ、そんなところだ。幸いその後キャラバンに出会って、リターニアの近くまで連れて行ってもらえたけどな。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クオーラ"]ラヴァって……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クオーラ"]おバカさんだね――！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]はあ！？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クオーラ"]おバカさんだよ！　ラヴァったら、迷子になってヴィクトリアからリターニアまで行くなんて、アハハハハ――！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]オマエにだけは言われたくない！！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]でもアタシの占いは間違ってなかった！　あの事故だって定められた運命だったんだよ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]もしキャラバンについてリターニアに行ってなければ、先生に会うこともなかったし、先生から音楽を教わることもなかった。アーツの習得だって、今頃もっと苦労してたはずだ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クオーラ"]あっ、確かに。ラヴァはアーツの習得が早いし上手だよね……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クオーラ"]教官たちもPithお姉ちゃんもみんなラヴァのこと褒めてたよ。あと前に任務で会った、仏頂面で目がこんな感じで、めちゃくちゃいい声のエリートオペレーターの人も、同じこと言ってた！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クオーラ"]そういえば、最近ラヴァ毎日訓練場に行ってるけど、そのエリートオペレーターの人に教えてもらってるの？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]チッ……そうしたいのは山々だが、そんなうまい話があるはずないだろ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]Logos大先生みたいなエリートが、わざわざアタシに稽古つけてくれる時間なんてあるわけない。前みたいに二言三言指摘してもらえるだけで御の字だよ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]ていうか、オマエさっきあの人のことなんて言った？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クオーラ"]ん？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]とぼけるな！　あのLogos大先生だぞ！　クールで強くてイカしてて優雅で神秘的で落ち着きのあるLogos大先生だぞ！　大先生には最大限の敬意を払えよ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クオーラ"]うわぁ……わかったよ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クオーラ"]ラヴァは本当にあのエリートオペレーターにゾッコンなんだね……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]ゾッコンじゃない、尊敬だ！　強者に対する尊敬だ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]フンッ、いつかアタシも大先生みたいに強くなってやる！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クオーラ"]う、うん……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クオーラ"]（でも今のラヴァの表情って、前にソラちゃんが歌ってる姿を見た時の支援部のお兄さんお姉さんたちと同じ顔だよね……）
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クオーラ"]（なるほど！　それが尊敬ってことなんだね！）
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クオーラ"]うーん……でも、やっぱり残念だなぁ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]何がだ？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クオーラ"]本当はね……ハイビスお姉ちゃんがボクのお姉ちゃんになったら、ラヴァもボクのことお姉ちゃんって呼んでくれるんじゃないかって思ってたの。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クオーラ"]ホントに残念！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]バカ言うな！　アタシは絶対そんなふうに呼ばないからな！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]それにアタシはハイビスと同じ日に生まれたんだ。なのにどうしてアイツが姉ちゃんでアタシが妹なんだよ？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]いいか、アタシの方がオマエら二人より背が高いんだからな！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クオーラ"]身長は関係ないよ。ハイビスお姉ちゃんはボクの面倒を見てくれるからお姉ちゃんなんだよ。でもラヴァは、ボクより年下っぽいじゃん。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]意味がわからない……アタシはオマエの面倒見てないってのか！？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クオーラ"]痛い痛い、頬っぺたつねんないでよ――
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]フンッ、きっちり教えてやらないとダメみたいだな。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]いいか、見た目で人を判断するな！　特にサルカズはな……アタシたちサルカズの年齢は、見た目とは一致しないものなんだ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クオーラ"]えぇっ！　まさかラヴァは、見た目は若いけどおばあさんなの？　ワルファリン先生みたいな？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]……そうじゃない。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クオーラ"]違うの？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]……もういい。この話はやめだ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]だけど、今の言葉はワルファリン先生の前では絶対に言うなよ？　もし言ったら百パー殺されるぞ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]じゃあな。アタシはまだやることあるから――
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クオーラ"]あっ！　どこに遊びに行くの？　ボクも一緒に――
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]ダ・メ・だ！　遊びに行くんじゃない、ついてくるな！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]どうしてもやらなきゃならないことがあるんだ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]……いない。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]おかしいな……いつもならハイビスは、この時間には戻って来てるはずなんだけど……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]（ったく、クオーラの奴が変なこと言ったせいだ。）
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]（何が「お姉ちゃんをちょうだい」だ！　できるわけないだろ……物じゃないっての。）
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]（それにケチだなんて心外だ。むしろ本当に交換できて、ハイビスが姉ちゃんじゃなくなれば願ったり叶ったりだっての！　誰を兄弟姉妹にするかなんて、誰も選べやしない……）
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]（……）
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]（……ま、まぁいい。）
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]（昼間の件は確かにキレたアタシが悪い……間違いは間違いだ、それは認めよう。）
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]（ハイビスが帰ってきたら、謝ろう――）
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]これは……ケーキ？　それと……手紙？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Subtitle(text="ラヴァちゃんへ――お姉ちゃんは今夜、医療部で患者さんの世話をしなきゃいけなくて多分帰れないから、お夕飯は私を待たなくていいよ！　それからドーベルマン教官から聞いたけど、最近はアーツの練習をすっごく頑張ってるんだって？　PithさんやLogosさん、あと他の術師オペレーターのみんなも、ラヴァちゃんのこと褒めてたよ。才能があって覚えが早いって！　妹がこんなに優秀だなんて、私はお姉ちゃんとして本当に鼻が高いよ。ただ、お姉ちゃんは医者の立場として心配なことがあるの。", x=300, y=220, alignment="left", size=24, delay=0.04, width=700)]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Subtitle(text="最近、ラヴァちゃんは訓練のために毎日すっごく早起きしてるでしょ？　朝からずっと訓練室にこもって朝食を食べ忘れる時だってあるし、お昼と夕食も急いで食べて、栄養も偏ってる。そんな様子じゃ医者としてもお姉ちゃんとしても心配なんだよ。アーツを頻繁に使うと、私たちの病気に多かれ少なかれ影響を与えるから、その上健康にも注意しないとなると、リスクだって跳ね上がっちゃうんだよ。努力するのは良いことだけど、身体には充分気を付けてね。", x=300, y=260, alignment="left", size=24, delay=0.04, width=700)]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Subtitle(text="今日のお昼は、お姉ちゃんが悪かったよ。ラヴァちゃんがトマトを嫌いなのを知ってて、無理やり食べさせるなんて間違ってたよね。ごめんね。ラヴァちゃん、最近私と仲良くしようと頑張ってくれてるでしょ？　私とっても嬉しいよ。だから、私もしっかりと反省して、今度からはラヴァちゃんを怒らせないようにするね！　このケーキはお詫びの印だよ。もしお姉ちゃんを許してくれるなら食べてね。きっとラヴァちゃんが好きな味になってると思うよ。私が一人でこっそり何度も練習して、ラヴァちゃんのために作ったケーキなんだ。", x=300, y=260, alignment="left", size=24, delay=0.04, width=700)]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Subtitle(text="ラヴァちゃんのことが大好きなお姉ちゃん、ハイビスカスより", x=300, y=370, alignment="left", size=24, delay=0.04, width=700)]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]……なんだよ！　こ、こんなお涙頂戴の手紙なんか書いて、アイツ恥ずかしくないのかよ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]やっぱアイツは悪の化身だ……こんなのズルいだろ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]詫びまで先に言われるなんて、全然クールじゃない……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]（ケーキをほおばる）
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]おえっ、アイツまたなんか変なもの入れやがったな？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]しかもアタシが好きな味だとかテキトーなことばっか……フンッ、甘さが全然足りてない、完全に不合格だ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]それにアイツ、夜は医療部に残るとか書いてあったけど……どうせまた忙しくてご飯食べるの忘れるんだろ。アタシに体に気を付けろとか言っといて、自分も同じことしてんじゃねぇか。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]しょうがないな……このケーキに免じて、夜は何か食べるもん届けてやるか……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ラヴァ"]ふんっ、やっぱりアタシがいないとダメだな。バカな姉ちゃんを持つと苦労するぜ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:10 A.M. \ Clear
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rhodes Island Landship, Cabin No. 2, Operator Living Area
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Breathe in—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]—Breathe out.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Empty your mind. Purge your thoughts.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Phew...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Alright. No problems.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Heart rate unaccelerated, emotions holding steady. You're alright, Lava. You can do this!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]This is the one! You're gonna talk to Hibiscus without getting pissed at her!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"]Oh, Lava~! You're just in time!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"]I've prepared you a healthy meal for today too, so make sure you eat it!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]What? For hell's sakes, who'd want to eat your 'healthy meals' day in day out?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]...Hfff...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"](No, no, Lava. Don't talk to her like this.)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"](Patience. Bring out your will of a master fortune-teller, and control yourself...)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"](Steady heart. Steady heart.)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Phew.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Uh, no, I mean...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]With every day being healthy meals, I'm a little tired... I'm not saying I'm fed up with you! Don't overthink it!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"]Haha, what's all that rubbish for? Of course I know you wouldn't be fed up with your sister~
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"]Come on, this is today's lunch. Make sure you don't leave a single scrap!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"]It's been getting cold lately. Balanced nutrition is the number one defense against getting ill, don't you know?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]......
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Blugh...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"]Hmm? What's wrong?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]I've told... I'm TELLING you...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Forget this fff... flavor for a moment. You know the thing I hate eating most is tomatoes, right?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"]Uh-huh. Why wouldn't I know?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]So why...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]—Why would you go and stuff all this boiled tomato into MY lunch!?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"]Aw, don't get worked up. It's because tomatoes are very nutritious, of course~
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"]And don't think I didn't know! Don't you always sneak any food you don't like onto Kroos's plate?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"]And not just that, you've only been eating meat recently, without a single vegetable in sight, haven't you?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"]You can't be like that, you can't be picky! 'Bad kids' like you who don't listen are in need of a little stricter punishment!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"]I'll be watching you to make sure you eat every last bite today!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"](Deep breath)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Don't get angry don't get angry don't get angry.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Don't get... aaaarrrghh fffor gods' sakes I can't do it I can't take this!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Can you stop being like this ever! Don't treat me! Like! A child—!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Ugh...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]And it all ends up like this once again.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]I didn't want to argue with her, but she's just too annoying, isn't she? Who forces people to eat what they hate like that? Urp... I still feel like I want to throw up a little.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Ugh.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Whatever. It's my fault in the end for not controlling my temper...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Cuora"]What what what? Who's bullying you?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Cuora"]Tell me quick, I'll beat them up! Just watch me pummel any rotten bully into next week! Just liiiiiiike—this!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Waagh!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Stop swinging your bat around in here! That's dangerous as hell!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Hold on, didn't the Doctor say hitting people with your bat was forbidden on the ship? Wasn't writing a whole letter enough to learn anything?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Cuora"]Oh, right! Awgh... I hate writing self reflection letters! I don't wanna write any more!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Cuora"]Oh well, that's okay, I can do it without using my bat. Look, I can smash my backpack into any baddies! My backpack's really useful! Amiya and the bosses said I was really cool and strong!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Cuora"]So don't worry, Lava, it's my turn to make the baddies learn!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]I don't worry about... look, just pause, calm down for now. Mind you don't get dragged in for another lecture.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]And nobody's bullying me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Cuora"]Really?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Really.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Cuora"](Staring)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Cuora"]You're lying!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Wha?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Cuora"]If nobody's bullying you, then why do you look like you're having a really sad time, Lava?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Sad? Do... do I?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]No way, you're seeing me wrong! I don't—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Cuora"]Of course you do! I don't see things wrong!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Cuora"]Your eyebrows are all crumpled like that one time you were playing piano and the lid smashed into your hands! You look like you're really hurt!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]You're blowing this out of proportion!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Cuora"]Am I right or not!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Fine, okay, you're right. But it's not anything that serious. *sigh* I just had an argument with that stupid Hibiscus, nothing unusual...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Cuora"]Oh, is it a Hibiscus thing again?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Cuora"]Awwww. If it's a Hibiscus thing, then I can't help you out...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Why not?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Cuora"]Because Hibiscus isn't a baddie, right? She was really nice and gentle last time she examined me, and she gave me a little cake too! It was super tasty!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Hmph. That's just like her, playing nice.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]What's so amazing about cakes? It's not like I can't make them...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]And with HER abilities, baking something that counts as edible these days? Do you have any idea how many times she had to fail before that?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]And she couldn't throw away anything she'd ruined, and she forced me to clean up her awful messes for her.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Cuora"]Um... um? I don't get it!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Cuora"]Does that mean you got a lot of cakes to eat?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]As if it'd mean that!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Ugh... forget it. I don't know what I'm doing telling you this.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Basically, if you actually had a brother or sister or whatever, you'd understand what kinds of maddening creatures big sisters are! Especially the oppressive, dictatorial ones like Hibiscus...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Cuora"]......
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Hey. What's the silence for?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Cuora"]Um. How do I put this?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Huh?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Cuora"]I think, it's really nice!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Huh? What part of that's nice?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Cuora"]It's really nice, the idea of having a sibling... I really wanna experience it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Cuora"]I could ask the Doctor to be my brother or sister or something, but, it wouldn't be like it is between you and Hibiscus, right?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Uh, that'd be, I guess... not the same?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Cuora"]Knew it...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Cuora"]Then, Lava.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]What.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Cuora"]I thought of a good idea—you just gotta make Hibiscus be my older sister!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Pfff—!!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]*cough*, *cough* *cough* *cough*... Wh—What kind of insane idea is that?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Cuora"]I'm not being insane, I'm saying it very seriously!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Do you understand that, like, sisters... familial sisters are blood-related? They—Even if you wanted to, they're not something you can just give up to other people!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Cuora"]Whaaa—what does that matter? I don't care if there's no blood or whatever, right?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]You still can't!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Cuora"]Can't I really? Pleaaaase—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Cuora"]You're always saying Hibiscus is your sworn nemesis, and she's the incarnation of evil thingies, right? So if you don't want your big sister, you can just let me have her!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]That—I...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]No. In one word, no!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Cuora"]Why not?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]There isn't a why not! No just means no!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Cuora"]Spoilsport!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Say whatever you want!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Cuora"]I don't get it. Whyyy...? Okay...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Cuora"]But for super real, then, why are you always fighting with Hibiscus, then?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Cuora"]I heard from Fang that when you just joined the squad, and you first saw Hibiscus, you almost said you were gonna quit right there. Is that true?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]What's Fang doing telling you all that...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Cuora"]So it's real?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]It's real.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Cuora"]Oh... but that's really weird, 'cause why didn't you know Hibiscus was gonna be in your squad too? Um, didn't you come to Rhodes Island together?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]What are you asking for? Where'd all this curiosity of yours come from?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Cuora"]Tell me, tell me!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Don't—Don't shake me... Fine, fine, if I tell you you'll be happy, right? This is doing my head in, but there's not even much to hide anyway.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Hibiscus and I did leave home together at first. However, midway, something unexpected occurred...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]As in—*ahem*—I had an argument with her halfway along, so we split up.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Cuora"]That's not unexpected at all!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Shut up! I know it's not cool at all either!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]It was an argument about—uh—I can't remember what it was, forget it... essentially, after we argued I was pissed beyond belief, and ran off to vent some steam, and ended up going a little too far without realizing...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]I wasn't too good with telling apart wasteland geography, and I went off any sort of signed road while I was still fuming, so I... just...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Cuora"]Wait, no way? You ran too far away and got lost just like that? Alone in the wasteland?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]More or less. Luckily I came across a caravan afterwards, and they took me up close to Leithania.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Cuora"]Lava, you...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Cuora"]You're a huge little dummy—!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Huh?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Cuora"]You're a dummy! You're a huge little dummy! How can anyone get so lost they go from Victoria to Leithania? Ahahahaha—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]You're the literal last person I want to hear this from!!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]But my fortune telling didn't miss. It was my fated encounter!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]If I hadn't followed the caravan for Leithania, I would've never met my teacher, and if he never taught me music, then I'd definitely be having a hard time learning Originium Arts now!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Cuora"]Oh, that's true. You learn Originium Arts really good and fast too...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Cuora"]The instructors and Pith all say you're great. And the elite operator sir I saw last mission, with the stiff face and the eyes like this, and the weirdly nice voice, he said so too!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Cuora"]Actually, you've been going to the training grounds every day. Is that because you're learning from that operator guy?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Tch. I'd like to be, but when would something that good ever happen?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]How would someone as important as Master Logos ever have the time to teach me specifically? Just the couple of words he gave last time are already amazing enough...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]And what was with your description of him just now?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Cuora"]Huh?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Don't cock your head and play dumb! He's a master, a cool and strong and eye-catching graceful mysterious composed master! You need to have a little more respect towards him!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Cuora"]Wow... I got it, I got it~
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Cuora"]You really worship that elite operator sir guy, huh...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]It's not worship, it's respect! Respect for the strong!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Hmph. There'll be a day when I become just as strong as him!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Cuora"]Uh, huuuh...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Cuora"](But the look on Lava's face is totally like when all the nice people out at that logistics office last time saw Sora singing...)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Cuora"](Ohh, now I get it! So this is what respect is!)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Cuora"]But, you know, I still feel really sorry.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Sorry for what?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Cuora"]Umm... I was thinking, see, if Hibiscus became my big sister, then you'd start calling me a big sister too.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Cuora"]Sorry!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]You can dream on! Like hell I would!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]And obviously me and Hibiscus are the exact same age! Why's she the big sister and I'm the little one?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Let me make it clear, I'm literally taller than the both of you!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Cuora"]It's nothing to do with height. Hibiscus is really caring of me, so she's a big sister to me. But I always feel like you're younger than me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]I can't make heads or tails of what you're saying... You mean I don't care for you?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Cuora"]Awwwwaawa stop puwwing on my face—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Hmph. Someone should've taught you this sooner or later.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Remember! Never judge a book by its cover, and especially not when you're in front of a Sarkaz! For a Sarkaz, age and appearance are two separate matters!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Cuora"]Oh! Are you actually like the kind of old lady that looks young instead? Just like Dr. Warfarin?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Not quite.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Cuora"]You aren't?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Whatever. I shouldn't be talking to you about this.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Actually, don't tell Dr. Warfarin what you just said under any circumstances either. You will 100% be killed.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Let's leave it at that. I still have some things to do, so I'll be heading off.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Cuora"]Ah! Where are you gonna go play, Lava? I wanna come with—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]You—are—not! I'm not off to play, and don't you follow me!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]I'm going to deal with a few matters...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]No-one's in.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Weird. How late is it? Hibiscus should've come back at this time already...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"](Honestly. It's all that Cuora's fault with all the weird stuff she spouted.)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]('Let me have your sister.' In what universe? She's not a commodity. How would anyone ever...)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"](Spoilsport, my ass. If we really could switch and she'd stop being my sister, I'd thank every star in the whole goddamn sky! It's not like I have any choice when it comes to sibling stuff...)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"](......)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"](...For—Forget it.)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"](I shouldn't have lost my temper over today. Being wrong is being wrong. Nothing I can't recognize there.)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"](When Hibiscus gets back, I'll apologize to her—)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Hm?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]What is this... Cake—and... a letter?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Subtitle(text="To Lava: Your sister's looking after patients in the Medical Department tonight and probably can't make it back, so don't wait for me in the evening! I heard from Instructor Dobermann that you've been really hardworking lately, always paying special attention to practicing your Originium Arts, right? A couple of Caster operators including Pith and that Logos were all complimenting you, saying you've got a natural gift, and you learn extraordinarily well! As your big sister, seeing you so outstanding makes me feel very, truly happy. The only thing is, your sister's a doctor, and from a doctor's perspective, things can also make me worry.", x=300, y=220, alignment="left", size=24, delay=0.04, width=700)]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Subtitle(text="Recently, you've been waking up very early every morning to practice, right? When you stay in the training rooms all morning, sometimes you even forget to eat breakfast, and you rush through your lunch and dinner, your diet is imbalanced. And both as a doctor and your big sister, it's very hard not to feel uneasy about it. Frequent casting of Originium Arts is going to have some effect or other on our conditions, and if we're not careful, the risk will balloon. I know a lot of effort is a good thing, but you need to take care, too. You can't ever neglect your body's health.", x=300, y=260, alignment="left", size=24, delay=0.04, width=700)]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Subtitle(text="What happened at lunch today was your sister's fault. I shouldn't have acted so obstinate while knowing full well you don't like tomatoes. I'm really sorry, Lava. Recently, you've actually been trying to get along with me better, right? That makes me very happy. So, I'll reflect properly on myself too, and strive not to make you upset next time! The cake on the table is a gift of apology. If you can forgive your big sister, go on and give it a taste. I've been secretly practicing for a while by myself, and baked this one specially for you. I'm sure it'll be something you like!", x=300, y=260, alignment="left", size=24, delay=0.04, width=700)]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Subtitle(text="Your loving sister: Hibiscus", x=300, y=370, alignment="left", size=24, delay=0.04, width=700)]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]What is she—writing something so—so sympathetic for? Doesn't she get embarrassed?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]She really is an evil one... just too evil...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]She even apologized first before I could. That's not cool at all...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"](Takes a big bite of the cake)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Blugh. She put something weird inside it yet again.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]And she said she was sure I'd like it... hmph. It's not even sweet enough. Disqualified.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]And wouldn't she forget to eat, spending all night busy at Medical? And she tells me I don't take care of my health. She's exactly the same.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Fine, then. In exchange for the cake, I'll need to force myself to go give her something to eat...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Heh. You really are hopeless without me, aren't you, you huge dummy sister.
 </t>
   </si>
   <si>
@@ -1928,13 +3460,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>195</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>386</v>
       </c>
       <c r="D2" t="s">
-        <v>195</v>
+        <v>578</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1942,13 +3474,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>196</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>387</v>
       </c>
       <c r="D3" t="s">
-        <v>196</v>
+        <v>579</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1956,13 +3488,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>197</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>388</v>
       </c>
       <c r="D4" t="s">
-        <v>197</v>
+        <v>580</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1970,13 +3502,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>198</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>389</v>
       </c>
       <c r="D5" t="s">
-        <v>198</v>
+        <v>581</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1984,13 +3516,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>199</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>390</v>
       </c>
       <c r="D6" t="s">
-        <v>199</v>
+        <v>582</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1998,13 +3530,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>200</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>391</v>
       </c>
       <c r="D7" t="s">
-        <v>200</v>
+        <v>583</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2012,13 +3544,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>201</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>392</v>
       </c>
       <c r="D8" t="s">
-        <v>201</v>
+        <v>584</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2026,13 +3558,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>202</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>393</v>
       </c>
       <c r="D9" t="s">
-        <v>202</v>
+        <v>585</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2040,13 +3572,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>203</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>394</v>
       </c>
       <c r="D10" t="s">
-        <v>203</v>
+        <v>586</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2054,13 +3586,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>204</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>395</v>
       </c>
       <c r="D11" t="s">
-        <v>204</v>
+        <v>587</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2068,13 +3600,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>205</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>396</v>
       </c>
       <c r="D12" t="s">
-        <v>205</v>
+        <v>588</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2082,13 +3614,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>206</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>397</v>
       </c>
       <c r="D13" t="s">
-        <v>206</v>
+        <v>589</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2096,13 +3628,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>207</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>398</v>
       </c>
       <c r="D14" t="s">
-        <v>207</v>
+        <v>590</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2110,13 +3642,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>208</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>399</v>
       </c>
       <c r="D15" t="s">
-        <v>208</v>
+        <v>591</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2124,13 +3656,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>209</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>400</v>
       </c>
       <c r="D16" t="s">
-        <v>209</v>
+        <v>592</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2138,13 +3670,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>210</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>401</v>
       </c>
       <c r="D17" t="s">
-        <v>210</v>
+        <v>593</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2152,13 +3684,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>211</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>402</v>
       </c>
       <c r="D18" t="s">
-        <v>211</v>
+        <v>594</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2166,13 +3698,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>212</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>403</v>
       </c>
       <c r="D19" t="s">
-        <v>212</v>
+        <v>595</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2180,13 +3712,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>213</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>404</v>
       </c>
       <c r="D20" t="s">
-        <v>213</v>
+        <v>596</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2194,13 +3726,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>214</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
+        <v>405</v>
       </c>
       <c r="D21" t="s">
-        <v>214</v>
+        <v>597</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2208,13 +3740,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>215</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>406</v>
       </c>
       <c r="D22" t="s">
-        <v>215</v>
+        <v>598</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2222,13 +3754,13 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>216</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>407</v>
       </c>
       <c r="D23" t="s">
-        <v>216</v>
+        <v>599</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2236,13 +3768,13 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>217</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>408</v>
       </c>
       <c r="D24" t="s">
-        <v>217</v>
+        <v>600</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2250,13 +3782,13 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>218</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>409</v>
       </c>
       <c r="D25" t="s">
-        <v>218</v>
+        <v>601</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2264,13 +3796,13 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>219</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>410</v>
       </c>
       <c r="D26" t="s">
-        <v>219</v>
+        <v>602</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2278,13 +3810,13 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>220</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>411</v>
       </c>
       <c r="D27" t="s">
-        <v>220</v>
+        <v>603</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2292,13 +3824,13 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>221</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
+        <v>412</v>
       </c>
       <c r="D28" t="s">
-        <v>221</v>
+        <v>604</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2306,13 +3838,13 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>222</v>
       </c>
       <c r="C29" t="s">
-        <v>31</v>
+        <v>413</v>
       </c>
       <c r="D29" t="s">
-        <v>222</v>
+        <v>605</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2320,13 +3852,13 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>223</v>
       </c>
       <c r="C30" t="s">
-        <v>32</v>
+        <v>414</v>
       </c>
       <c r="D30" t="s">
-        <v>223</v>
+        <v>606</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2334,13 +3866,13 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>224</v>
       </c>
       <c r="C31" t="s">
-        <v>33</v>
+        <v>415</v>
       </c>
       <c r="D31" t="s">
-        <v>224</v>
+        <v>607</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2348,13 +3880,13 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>225</v>
       </c>
       <c r="C32" t="s">
-        <v>34</v>
+        <v>416</v>
       </c>
       <c r="D32" t="s">
-        <v>225</v>
+        <v>608</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2362,13 +3894,13 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>226</v>
       </c>
       <c r="C33" t="s">
-        <v>35</v>
+        <v>417</v>
       </c>
       <c r="D33" t="s">
-        <v>226</v>
+        <v>609</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2376,13 +3908,13 @@
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>227</v>
       </c>
       <c r="C34" t="s">
-        <v>36</v>
+        <v>418</v>
       </c>
       <c r="D34" t="s">
-        <v>227</v>
+        <v>610</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2390,13 +3922,13 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>228</v>
       </c>
       <c r="C35" t="s">
-        <v>37</v>
+        <v>419</v>
       </c>
       <c r="D35" t="s">
-        <v>228</v>
+        <v>611</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2404,13 +3936,13 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>229</v>
       </c>
       <c r="C36" t="s">
-        <v>38</v>
+        <v>420</v>
       </c>
       <c r="D36" t="s">
-        <v>229</v>
+        <v>612</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2418,13 +3950,13 @@
         <v>26</v>
       </c>
       <c r="B37" t="s">
-        <v>26</v>
+        <v>217</v>
       </c>
       <c r="C37" t="s">
-        <v>26</v>
+        <v>408</v>
       </c>
       <c r="D37" t="s">
-        <v>217</v>
+        <v>600</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2432,13 +3964,13 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>197</v>
       </c>
       <c r="C38" t="s">
-        <v>39</v>
+        <v>421</v>
       </c>
       <c r="D38" t="s">
-        <v>197</v>
+        <v>580</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2446,13 +3978,13 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>230</v>
       </c>
       <c r="C39" t="s">
-        <v>40</v>
+        <v>422</v>
       </c>
       <c r="D39" t="s">
-        <v>230</v>
+        <v>613</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2460,13 +3992,13 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>231</v>
       </c>
       <c r="C40" t="s">
-        <v>41</v>
+        <v>423</v>
       </c>
       <c r="D40" t="s">
-        <v>231</v>
+        <v>614</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2474,13 +4006,13 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>232</v>
       </c>
       <c r="C41" t="s">
-        <v>42</v>
+        <v>424</v>
       </c>
       <c r="D41" t="s">
-        <v>232</v>
+        <v>615</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2488,13 +4020,13 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>233</v>
       </c>
       <c r="C42" t="s">
-        <v>43</v>
+        <v>425</v>
       </c>
       <c r="D42" t="s">
-        <v>233</v>
+        <v>616</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2502,13 +4034,13 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>234</v>
       </c>
       <c r="C43" t="s">
-        <v>44</v>
+        <v>426</v>
       </c>
       <c r="D43" t="s">
-        <v>234</v>
+        <v>617</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2516,13 +4048,13 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>45</v>
+        <v>235</v>
       </c>
       <c r="C44" t="s">
-        <v>45</v>
+        <v>427</v>
       </c>
       <c r="D44" t="s">
-        <v>235</v>
+        <v>618</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2530,13 +4062,13 @@
         <v>26</v>
       </c>
       <c r="B45" t="s">
-        <v>26</v>
+        <v>217</v>
       </c>
       <c r="C45" t="s">
-        <v>26</v>
+        <v>408</v>
       </c>
       <c r="D45" t="s">
-        <v>217</v>
+        <v>600</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2544,13 +4076,13 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>46</v>
+        <v>236</v>
       </c>
       <c r="C46" t="s">
-        <v>46</v>
+        <v>428</v>
       </c>
       <c r="D46" t="s">
-        <v>236</v>
+        <v>619</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2558,13 +4090,13 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>47</v>
+        <v>237</v>
       </c>
       <c r="C47" t="s">
-        <v>47</v>
+        <v>429</v>
       </c>
       <c r="D47" t="s">
-        <v>237</v>
+        <v>620</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2572,13 +4104,13 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>48</v>
+        <v>238</v>
       </c>
       <c r="C48" t="s">
-        <v>48</v>
+        <v>430</v>
       </c>
       <c r="D48" t="s">
-        <v>238</v>
+        <v>621</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2586,13 +4118,13 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>49</v>
+        <v>239</v>
       </c>
       <c r="C49" t="s">
-        <v>49</v>
+        <v>431</v>
       </c>
       <c r="D49" t="s">
-        <v>239</v>
+        <v>622</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2600,13 +4132,13 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>50</v>
+        <v>240</v>
       </c>
       <c r="C50" t="s">
-        <v>50</v>
+        <v>432</v>
       </c>
       <c r="D50" t="s">
-        <v>240</v>
+        <v>623</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2614,13 +4146,13 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>51</v>
+        <v>241</v>
       </c>
       <c r="C51" t="s">
-        <v>51</v>
+        <v>433</v>
       </c>
       <c r="D51" t="s">
-        <v>241</v>
+        <v>624</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2628,13 +4160,13 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>52</v>
+        <v>242</v>
       </c>
       <c r="C52" t="s">
-        <v>52</v>
+        <v>434</v>
       </c>
       <c r="D52" t="s">
-        <v>242</v>
+        <v>625</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2642,13 +4174,13 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>53</v>
+        <v>243</v>
       </c>
       <c r="C53" t="s">
-        <v>53</v>
+        <v>435</v>
       </c>
       <c r="D53" t="s">
-        <v>243</v>
+        <v>626</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2656,13 +4188,13 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>54</v>
+        <v>244</v>
       </c>
       <c r="C54" t="s">
-        <v>54</v>
+        <v>436</v>
       </c>
       <c r="D54" t="s">
-        <v>244</v>
+        <v>627</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2670,13 +4202,13 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>55</v>
+        <v>245</v>
       </c>
       <c r="C55" t="s">
-        <v>55</v>
+        <v>437</v>
       </c>
       <c r="D55" t="s">
-        <v>245</v>
+        <v>628</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2684,13 +4216,13 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>56</v>
+        <v>246</v>
       </c>
       <c r="C56" t="s">
-        <v>56</v>
+        <v>438</v>
       </c>
       <c r="D56" t="s">
-        <v>246</v>
+        <v>629</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2698,13 +4230,13 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>57</v>
+        <v>247</v>
       </c>
       <c r="C57" t="s">
-        <v>57</v>
+        <v>439</v>
       </c>
       <c r="D57" t="s">
-        <v>247</v>
+        <v>630</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2712,13 +4244,13 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>58</v>
+        <v>248</v>
       </c>
       <c r="C58" t="s">
-        <v>58</v>
+        <v>440</v>
       </c>
       <c r="D58" t="s">
-        <v>248</v>
+        <v>631</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2726,13 +4258,13 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>59</v>
+        <v>249</v>
       </c>
       <c r="C59" t="s">
-        <v>59</v>
+        <v>441</v>
       </c>
       <c r="D59" t="s">
-        <v>249</v>
+        <v>632</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2740,13 +4272,13 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="C60" t="s">
-        <v>60</v>
+        <v>442</v>
       </c>
       <c r="D60" t="s">
-        <v>250</v>
+        <v>633</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2754,13 +4286,13 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>61</v>
+        <v>251</v>
       </c>
       <c r="C61" t="s">
-        <v>61</v>
+        <v>443</v>
       </c>
       <c r="D61" t="s">
-        <v>251</v>
+        <v>634</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2768,13 +4300,13 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>62</v>
+        <v>252</v>
       </c>
       <c r="C62" t="s">
-        <v>62</v>
+        <v>444</v>
       </c>
       <c r="D62" t="s">
-        <v>252</v>
+        <v>635</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2782,13 +4314,13 @@
         <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>63</v>
+        <v>253</v>
       </c>
       <c r="C63" t="s">
-        <v>63</v>
+        <v>445</v>
       </c>
       <c r="D63" t="s">
-        <v>253</v>
+        <v>636</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2796,13 +4328,13 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>64</v>
+        <v>254</v>
       </c>
       <c r="C64" t="s">
-        <v>64</v>
+        <v>446</v>
       </c>
       <c r="D64" t="s">
-        <v>254</v>
+        <v>637</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2810,13 +4342,13 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>65</v>
+        <v>255</v>
       </c>
       <c r="C65" t="s">
-        <v>65</v>
+        <v>447</v>
       </c>
       <c r="D65" t="s">
-        <v>255</v>
+        <v>638</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2824,13 +4356,13 @@
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>66</v>
+        <v>256</v>
       </c>
       <c r="C66" t="s">
-        <v>66</v>
+        <v>448</v>
       </c>
       <c r="D66" t="s">
-        <v>256</v>
+        <v>639</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2838,13 +4370,13 @@
         <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>67</v>
+        <v>257</v>
       </c>
       <c r="C67" t="s">
-        <v>67</v>
+        <v>449</v>
       </c>
       <c r="D67" t="s">
-        <v>257</v>
+        <v>640</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2852,13 +4384,13 @@
         <v>26</v>
       </c>
       <c r="B68" t="s">
-        <v>26</v>
+        <v>217</v>
       </c>
       <c r="C68" t="s">
-        <v>26</v>
+        <v>408</v>
       </c>
       <c r="D68" t="s">
-        <v>217</v>
+        <v>600</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2866,13 +4398,13 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>68</v>
+        <v>258</v>
       </c>
       <c r="C69" t="s">
-        <v>68</v>
+        <v>450</v>
       </c>
       <c r="D69" t="s">
-        <v>258</v>
+        <v>641</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2880,13 +4412,13 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>69</v>
+        <v>259</v>
       </c>
       <c r="C70" t="s">
-        <v>69</v>
+        <v>451</v>
       </c>
       <c r="D70" t="s">
-        <v>259</v>
+        <v>642</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2894,13 +4426,13 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>70</v>
+        <v>260</v>
       </c>
       <c r="C71" t="s">
-        <v>70</v>
+        <v>428</v>
       </c>
       <c r="D71" t="s">
-        <v>260</v>
+        <v>643</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2908,13 +4440,13 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>71</v>
+        <v>261</v>
       </c>
       <c r="C72" t="s">
-        <v>71</v>
+        <v>452</v>
       </c>
       <c r="D72" t="s">
-        <v>261</v>
+        <v>644</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2922,13 +4454,13 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>72</v>
+        <v>262</v>
       </c>
       <c r="C73" t="s">
-        <v>72</v>
+        <v>453</v>
       </c>
       <c r="D73" t="s">
-        <v>262</v>
+        <v>645</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2936,13 +4468,13 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>73</v>
+        <v>263</v>
       </c>
       <c r="C74" t="s">
-        <v>73</v>
+        <v>454</v>
       </c>
       <c r="D74" t="s">
-        <v>263</v>
+        <v>646</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2950,13 +4482,13 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>74</v>
+        <v>264</v>
       </c>
       <c r="C75" t="s">
-        <v>74</v>
+        <v>455</v>
       </c>
       <c r="D75" t="s">
-        <v>264</v>
+        <v>647</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2964,13 +4496,13 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>75</v>
+        <v>265</v>
       </c>
       <c r="C76" t="s">
-        <v>75</v>
+        <v>456</v>
       </c>
       <c r="D76" t="s">
-        <v>265</v>
+        <v>648</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2978,13 +4510,13 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>76</v>
+        <v>266</v>
       </c>
       <c r="C77" t="s">
-        <v>76</v>
+        <v>457</v>
       </c>
       <c r="D77" t="s">
-        <v>266</v>
+        <v>649</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2992,13 +4524,13 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>77</v>
+        <v>267</v>
       </c>
       <c r="C78" t="s">
-        <v>77</v>
+        <v>458</v>
       </c>
       <c r="D78" t="s">
-        <v>267</v>
+        <v>650</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -3006,13 +4538,13 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>78</v>
+        <v>268</v>
       </c>
       <c r="C79" t="s">
-        <v>78</v>
+        <v>459</v>
       </c>
       <c r="D79" t="s">
-        <v>268</v>
+        <v>651</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -3020,13 +4552,13 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>79</v>
+        <v>269</v>
       </c>
       <c r="C80" t="s">
-        <v>79</v>
+        <v>460</v>
       </c>
       <c r="D80" t="s">
-        <v>269</v>
+        <v>652</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3034,13 +4566,13 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>80</v>
+        <v>270</v>
       </c>
       <c r="C81" t="s">
-        <v>80</v>
+        <v>461</v>
       </c>
       <c r="D81" t="s">
-        <v>270</v>
+        <v>653</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3048,13 +4580,13 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>81</v>
+        <v>271</v>
       </c>
       <c r="C82" t="s">
-        <v>81</v>
+        <v>462</v>
       </c>
       <c r="D82" t="s">
-        <v>271</v>
+        <v>654</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3062,13 +4594,13 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>82</v>
+        <v>272</v>
       </c>
       <c r="C83" t="s">
-        <v>82</v>
+        <v>463</v>
       </c>
       <c r="D83" t="s">
-        <v>272</v>
+        <v>655</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3076,13 +4608,13 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>83</v>
+        <v>273</v>
       </c>
       <c r="C84" t="s">
-        <v>83</v>
+        <v>464</v>
       </c>
       <c r="D84" t="s">
-        <v>273</v>
+        <v>656</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3090,13 +4622,13 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>84</v>
+        <v>274</v>
       </c>
       <c r="C85" t="s">
-        <v>84</v>
+        <v>465</v>
       </c>
       <c r="D85" t="s">
-        <v>274</v>
+        <v>657</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3104,13 +4636,13 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>85</v>
+        <v>275</v>
       </c>
       <c r="C86" t="s">
-        <v>85</v>
+        <v>466</v>
       </c>
       <c r="D86" t="s">
-        <v>275</v>
+        <v>658</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3118,13 +4650,13 @@
         <v>26</v>
       </c>
       <c r="B87" t="s">
-        <v>26</v>
+        <v>217</v>
       </c>
       <c r="C87" t="s">
-        <v>26</v>
+        <v>408</v>
       </c>
       <c r="D87" t="s">
-        <v>217</v>
+        <v>600</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3132,13 +4664,13 @@
         <v>85</v>
       </c>
       <c r="B88" t="s">
-        <v>85</v>
+        <v>275</v>
       </c>
       <c r="C88" t="s">
-        <v>85</v>
+        <v>466</v>
       </c>
       <c r="D88" t="s">
-        <v>275</v>
+        <v>658</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3146,13 +4678,13 @@
         <v>86</v>
       </c>
       <c r="B89" t="s">
-        <v>86</v>
+        <v>276</v>
       </c>
       <c r="C89" t="s">
-        <v>86</v>
+        <v>467</v>
       </c>
       <c r="D89" t="s">
-        <v>276</v>
+        <v>659</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3160,13 +4692,13 @@
         <v>87</v>
       </c>
       <c r="B90" t="s">
-        <v>87</v>
+        <v>277</v>
       </c>
       <c r="C90" t="s">
-        <v>87</v>
+        <v>468</v>
       </c>
       <c r="D90" t="s">
-        <v>277</v>
+        <v>660</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3174,13 +4706,13 @@
         <v>88</v>
       </c>
       <c r="B91" t="s">
-        <v>88</v>
+        <v>278</v>
       </c>
       <c r="C91" t="s">
-        <v>88</v>
+        <v>469</v>
       </c>
       <c r="D91" t="s">
-        <v>252</v>
+        <v>635</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3188,13 +4720,13 @@
         <v>89</v>
       </c>
       <c r="B92" t="s">
-        <v>89</v>
+        <v>279</v>
       </c>
       <c r="C92" t="s">
-        <v>89</v>
+        <v>470</v>
       </c>
       <c r="D92" t="s">
-        <v>278</v>
+        <v>661</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3202,13 +4734,13 @@
         <v>90</v>
       </c>
       <c r="B93" t="s">
-        <v>90</v>
+        <v>280</v>
       </c>
       <c r="C93" t="s">
-        <v>90</v>
+        <v>471</v>
       </c>
       <c r="D93" t="s">
-        <v>279</v>
+        <v>662</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3216,13 +4748,13 @@
         <v>91</v>
       </c>
       <c r="B94" t="s">
-        <v>91</v>
+        <v>281</v>
       </c>
       <c r="C94" t="s">
-        <v>91</v>
+        <v>472</v>
       </c>
       <c r="D94" t="s">
-        <v>280</v>
+        <v>663</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3230,13 +4762,13 @@
         <v>92</v>
       </c>
       <c r="B95" t="s">
-        <v>92</v>
+        <v>282</v>
       </c>
       <c r="C95" t="s">
-        <v>92</v>
+        <v>473</v>
       </c>
       <c r="D95" t="s">
-        <v>281</v>
+        <v>664</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3244,13 +4776,13 @@
         <v>93</v>
       </c>
       <c r="B96" t="s">
-        <v>93</v>
+        <v>283</v>
       </c>
       <c r="C96" t="s">
-        <v>93</v>
+        <v>474</v>
       </c>
       <c r="D96" t="s">
-        <v>282</v>
+        <v>665</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3258,13 +4790,13 @@
         <v>94</v>
       </c>
       <c r="B97" t="s">
-        <v>94</v>
+        <v>284</v>
       </c>
       <c r="C97" t="s">
-        <v>94</v>
+        <v>475</v>
       </c>
       <c r="D97" t="s">
-        <v>283</v>
+        <v>666</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3272,13 +4804,13 @@
         <v>85</v>
       </c>
       <c r="B98" t="s">
-        <v>85</v>
+        <v>275</v>
       </c>
       <c r="C98" t="s">
-        <v>85</v>
+        <v>466</v>
       </c>
       <c r="D98" t="s">
-        <v>275</v>
+        <v>658</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3286,13 +4818,13 @@
         <v>95</v>
       </c>
       <c r="B99" t="s">
-        <v>95</v>
+        <v>285</v>
       </c>
       <c r="C99" t="s">
-        <v>95</v>
+        <v>476</v>
       </c>
       <c r="D99" t="s">
-        <v>284</v>
+        <v>667</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3300,13 +4832,13 @@
         <v>96</v>
       </c>
       <c r="B100" t="s">
-        <v>96</v>
+        <v>286</v>
       </c>
       <c r="C100" t="s">
-        <v>96</v>
+        <v>477</v>
       </c>
       <c r="D100" t="s">
-        <v>264</v>
+        <v>647</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3314,13 +4846,13 @@
         <v>97</v>
       </c>
       <c r="B101" t="s">
-        <v>97</v>
+        <v>287</v>
       </c>
       <c r="C101" t="s">
-        <v>97</v>
+        <v>478</v>
       </c>
       <c r="D101" t="s">
-        <v>285</v>
+        <v>668</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3328,13 +4860,13 @@
         <v>98</v>
       </c>
       <c r="B102" t="s">
-        <v>98</v>
+        <v>288</v>
       </c>
       <c r="C102" t="s">
-        <v>98</v>
+        <v>479</v>
       </c>
       <c r="D102" t="s">
-        <v>286</v>
+        <v>669</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3342,13 +4874,13 @@
         <v>99</v>
       </c>
       <c r="B103" t="s">
-        <v>99</v>
+        <v>289</v>
       </c>
       <c r="C103" t="s">
-        <v>99</v>
+        <v>480</v>
       </c>
       <c r="D103" t="s">
-        <v>287</v>
+        <v>670</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3356,13 +4888,13 @@
         <v>100</v>
       </c>
       <c r="B104" t="s">
-        <v>100</v>
+        <v>290</v>
       </c>
       <c r="C104" t="s">
-        <v>100</v>
+        <v>481</v>
       </c>
       <c r="D104" t="s">
-        <v>288</v>
+        <v>671</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3370,13 +4902,13 @@
         <v>101</v>
       </c>
       <c r="B105" t="s">
-        <v>101</v>
+        <v>291</v>
       </c>
       <c r="C105" t="s">
-        <v>101</v>
+        <v>482</v>
       </c>
       <c r="D105" t="s">
-        <v>289</v>
+        <v>672</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3384,13 +4916,13 @@
         <v>102</v>
       </c>
       <c r="B106" t="s">
-        <v>102</v>
+        <v>292</v>
       </c>
       <c r="C106" t="s">
-        <v>102</v>
+        <v>483</v>
       </c>
       <c r="D106" t="s">
-        <v>290</v>
+        <v>673</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3398,13 +4930,13 @@
         <v>103</v>
       </c>
       <c r="B107" t="s">
-        <v>103</v>
+        <v>293</v>
       </c>
       <c r="C107" t="s">
-        <v>103</v>
+        <v>484</v>
       </c>
       <c r="D107" t="s">
-        <v>291</v>
+        <v>674</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3412,13 +4944,13 @@
         <v>104</v>
       </c>
       <c r="B108" t="s">
-        <v>104</v>
+        <v>294</v>
       </c>
       <c r="C108" t="s">
-        <v>104</v>
+        <v>485</v>
       </c>
       <c r="D108" t="s">
-        <v>292</v>
+        <v>675</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3426,13 +4958,13 @@
         <v>105</v>
       </c>
       <c r="B109" t="s">
-        <v>105</v>
+        <v>295</v>
       </c>
       <c r="C109" t="s">
-        <v>105</v>
+        <v>486</v>
       </c>
       <c r="D109" t="s">
-        <v>293</v>
+        <v>676</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3440,13 +4972,13 @@
         <v>106</v>
       </c>
       <c r="B110" t="s">
-        <v>106</v>
+        <v>296</v>
       </c>
       <c r="C110" t="s">
-        <v>106</v>
+        <v>487</v>
       </c>
       <c r="D110" t="s">
-        <v>294</v>
+        <v>677</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3454,13 +4986,13 @@
         <v>107</v>
       </c>
       <c r="B111" t="s">
-        <v>107</v>
+        <v>297</v>
       </c>
       <c r="C111" t="s">
-        <v>107</v>
+        <v>488</v>
       </c>
       <c r="D111" t="s">
-        <v>295</v>
+        <v>678</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3468,13 +5000,13 @@
         <v>108</v>
       </c>
       <c r="B112" t="s">
-        <v>108</v>
+        <v>298</v>
       </c>
       <c r="C112" t="s">
-        <v>108</v>
+        <v>489</v>
       </c>
       <c r="D112" t="s">
-        <v>296</v>
+        <v>679</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3482,13 +5014,13 @@
         <v>109</v>
       </c>
       <c r="B113" t="s">
-        <v>109</v>
+        <v>299</v>
       </c>
       <c r="C113" t="s">
-        <v>109</v>
+        <v>490</v>
       </c>
       <c r="D113" t="s">
-        <v>297</v>
+        <v>680</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3496,13 +5028,13 @@
         <v>110</v>
       </c>
       <c r="B114" t="s">
-        <v>110</v>
+        <v>300</v>
       </c>
       <c r="C114" t="s">
-        <v>110</v>
+        <v>491</v>
       </c>
       <c r="D114" t="s">
-        <v>298</v>
+        <v>681</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3510,13 +5042,13 @@
         <v>111</v>
       </c>
       <c r="B115" t="s">
-        <v>111</v>
+        <v>301</v>
       </c>
       <c r="C115" t="s">
-        <v>111</v>
+        <v>492</v>
       </c>
       <c r="D115" t="s">
-        <v>299</v>
+        <v>682</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3524,13 +5056,13 @@
         <v>112</v>
       </c>
       <c r="B116" t="s">
-        <v>112</v>
+        <v>302</v>
       </c>
       <c r="C116" t="s">
-        <v>112</v>
+        <v>493</v>
       </c>
       <c r="D116" t="s">
-        <v>300</v>
+        <v>683</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3538,13 +5070,13 @@
         <v>113</v>
       </c>
       <c r="B117" t="s">
-        <v>113</v>
+        <v>303</v>
       </c>
       <c r="C117" t="s">
-        <v>113</v>
+        <v>494</v>
       </c>
       <c r="D117" t="s">
-        <v>301</v>
+        <v>684</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3552,13 +5084,13 @@
         <v>114</v>
       </c>
       <c r="B118" t="s">
-        <v>114</v>
+        <v>304</v>
       </c>
       <c r="C118" t="s">
-        <v>114</v>
+        <v>495</v>
       </c>
       <c r="D118" t="s">
-        <v>302</v>
+        <v>685</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3566,13 +5098,13 @@
         <v>115</v>
       </c>
       <c r="B119" t="s">
-        <v>115</v>
+        <v>305</v>
       </c>
       <c r="C119" t="s">
-        <v>115</v>
+        <v>496</v>
       </c>
       <c r="D119" t="s">
-        <v>303</v>
+        <v>686</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3580,13 +5112,13 @@
         <v>116</v>
       </c>
       <c r="B120" t="s">
-        <v>116</v>
+        <v>306</v>
       </c>
       <c r="C120" t="s">
-        <v>116</v>
+        <v>497</v>
       </c>
       <c r="D120" t="s">
-        <v>304</v>
+        <v>687</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3594,13 +5126,13 @@
         <v>59</v>
       </c>
       <c r="B121" t="s">
-        <v>59</v>
+        <v>307</v>
       </c>
       <c r="C121" t="s">
-        <v>59</v>
+        <v>498</v>
       </c>
       <c r="D121" t="s">
-        <v>305</v>
+        <v>688</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3608,13 +5140,13 @@
         <v>117</v>
       </c>
       <c r="B122" t="s">
-        <v>117</v>
+        <v>308</v>
       </c>
       <c r="C122" t="s">
-        <v>117</v>
+        <v>499</v>
       </c>
       <c r="D122" t="s">
-        <v>306</v>
+        <v>689</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3622,13 +5154,13 @@
         <v>118</v>
       </c>
       <c r="B123" t="s">
-        <v>118</v>
+        <v>309</v>
       </c>
       <c r="C123" t="s">
-        <v>118</v>
+        <v>500</v>
       </c>
       <c r="D123" t="s">
-        <v>307</v>
+        <v>690</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3636,13 +5168,13 @@
         <v>119</v>
       </c>
       <c r="B124" t="s">
-        <v>119</v>
+        <v>310</v>
       </c>
       <c r="C124" t="s">
-        <v>119</v>
+        <v>501</v>
       </c>
       <c r="D124" t="s">
-        <v>308</v>
+        <v>691</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3650,13 +5182,13 @@
         <v>120</v>
       </c>
       <c r="B125" t="s">
-        <v>120</v>
+        <v>311</v>
       </c>
       <c r="C125" t="s">
-        <v>120</v>
+        <v>502</v>
       </c>
       <c r="D125" t="s">
-        <v>309</v>
+        <v>692</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3664,13 +5196,13 @@
         <v>121</v>
       </c>
       <c r="B126" t="s">
-        <v>121</v>
+        <v>312</v>
       </c>
       <c r="C126" t="s">
-        <v>121</v>
+        <v>503</v>
       </c>
       <c r="D126" t="s">
-        <v>310</v>
+        <v>693</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3678,13 +5210,13 @@
         <v>122</v>
       </c>
       <c r="B127" t="s">
-        <v>122</v>
+        <v>313</v>
       </c>
       <c r="C127" t="s">
-        <v>122</v>
+        <v>504</v>
       </c>
       <c r="D127" t="s">
-        <v>311</v>
+        <v>694</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3692,13 +5224,13 @@
         <v>123</v>
       </c>
       <c r="B128" t="s">
-        <v>123</v>
+        <v>314</v>
       </c>
       <c r="C128" t="s">
-        <v>123</v>
+        <v>505</v>
       </c>
       <c r="D128" t="s">
-        <v>312</v>
+        <v>695</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3706,13 +5238,13 @@
         <v>124</v>
       </c>
       <c r="B129" t="s">
-        <v>124</v>
+        <v>315</v>
       </c>
       <c r="C129" t="s">
-        <v>124</v>
+        <v>506</v>
       </c>
       <c r="D129" t="s">
-        <v>313</v>
+        <v>696</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3720,13 +5252,13 @@
         <v>125</v>
       </c>
       <c r="B130" t="s">
-        <v>125</v>
+        <v>316</v>
       </c>
       <c r="C130" t="s">
-        <v>125</v>
+        <v>507</v>
       </c>
       <c r="D130" t="s">
-        <v>314</v>
+        <v>697</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3734,13 +5266,13 @@
         <v>126</v>
       </c>
       <c r="B131" t="s">
-        <v>126</v>
+        <v>317</v>
       </c>
       <c r="C131" t="s">
-        <v>126</v>
+        <v>508</v>
       </c>
       <c r="D131" t="s">
-        <v>315</v>
+        <v>698</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3748,13 +5280,13 @@
         <v>127</v>
       </c>
       <c r="B132" t="s">
-        <v>127</v>
+        <v>318</v>
       </c>
       <c r="C132" t="s">
-        <v>127</v>
+        <v>509</v>
       </c>
       <c r="D132" t="s">
-        <v>316</v>
+        <v>699</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3762,13 +5294,13 @@
         <v>128</v>
       </c>
       <c r="B133" t="s">
-        <v>128</v>
+        <v>319</v>
       </c>
       <c r="C133" t="s">
-        <v>128</v>
+        <v>510</v>
       </c>
       <c r="D133" t="s">
-        <v>317</v>
+        <v>700</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3776,13 +5308,13 @@
         <v>85</v>
       </c>
       <c r="B134" t="s">
-        <v>85</v>
+        <v>275</v>
       </c>
       <c r="C134" t="s">
-        <v>85</v>
+        <v>466</v>
       </c>
       <c r="D134" t="s">
-        <v>275</v>
+        <v>658</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3790,13 +5322,13 @@
         <v>129</v>
       </c>
       <c r="B135" t="s">
-        <v>129</v>
+        <v>320</v>
       </c>
       <c r="C135" t="s">
-        <v>129</v>
+        <v>511</v>
       </c>
       <c r="D135" t="s">
-        <v>318</v>
+        <v>701</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3804,13 +5336,13 @@
         <v>130</v>
       </c>
       <c r="B136" t="s">
-        <v>130</v>
+        <v>321</v>
       </c>
       <c r="C136" t="s">
-        <v>130</v>
+        <v>512</v>
       </c>
       <c r="D136" t="s">
-        <v>319</v>
+        <v>702</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3818,13 +5350,13 @@
         <v>131</v>
       </c>
       <c r="B137" t="s">
-        <v>131</v>
+        <v>322</v>
       </c>
       <c r="C137" t="s">
-        <v>131</v>
+        <v>513</v>
       </c>
       <c r="D137" t="s">
-        <v>320</v>
+        <v>703</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3832,13 +5364,13 @@
         <v>132</v>
       </c>
       <c r="B138" t="s">
-        <v>132</v>
+        <v>323</v>
       </c>
       <c r="C138" t="s">
-        <v>132</v>
+        <v>514</v>
       </c>
       <c r="D138" t="s">
-        <v>321</v>
+        <v>704</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3846,13 +5378,13 @@
         <v>133</v>
       </c>
       <c r="B139" t="s">
-        <v>133</v>
+        <v>324</v>
       </c>
       <c r="C139" t="s">
-        <v>133</v>
+        <v>515</v>
       </c>
       <c r="D139" t="s">
-        <v>322</v>
+        <v>705</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3860,13 +5392,13 @@
         <v>134</v>
       </c>
       <c r="B140" t="s">
-        <v>134</v>
+        <v>325</v>
       </c>
       <c r="C140" t="s">
-        <v>134</v>
+        <v>516</v>
       </c>
       <c r="D140" t="s">
-        <v>323</v>
+        <v>706</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3874,13 +5406,13 @@
         <v>135</v>
       </c>
       <c r="B141" t="s">
-        <v>135</v>
+        <v>326</v>
       </c>
       <c r="C141" t="s">
-        <v>135</v>
+        <v>517</v>
       </c>
       <c r="D141" t="s">
-        <v>324</v>
+        <v>707</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3888,13 +5420,13 @@
         <v>136</v>
       </c>
       <c r="B142" t="s">
-        <v>136</v>
+        <v>327</v>
       </c>
       <c r="C142" t="s">
-        <v>136</v>
+        <v>518</v>
       </c>
       <c r="D142" t="s">
-        <v>325</v>
+        <v>708</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3902,13 +5434,13 @@
         <v>137</v>
       </c>
       <c r="B143" t="s">
-        <v>137</v>
+        <v>328</v>
       </c>
       <c r="C143" t="s">
-        <v>137</v>
+        <v>519</v>
       </c>
       <c r="D143" t="s">
-        <v>326</v>
+        <v>709</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3916,13 +5448,13 @@
         <v>138</v>
       </c>
       <c r="B144" t="s">
-        <v>138</v>
+        <v>329</v>
       </c>
       <c r="C144" t="s">
-        <v>138</v>
+        <v>520</v>
       </c>
       <c r="D144" t="s">
-        <v>327</v>
+        <v>710</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3930,13 +5462,13 @@
         <v>139</v>
       </c>
       <c r="B145" t="s">
-        <v>139</v>
+        <v>330</v>
       </c>
       <c r="C145" t="s">
-        <v>139</v>
+        <v>521</v>
       </c>
       <c r="D145" t="s">
-        <v>328</v>
+        <v>711</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3944,13 +5476,13 @@
         <v>140</v>
       </c>
       <c r="B146" t="s">
-        <v>140</v>
+        <v>331</v>
       </c>
       <c r="C146" t="s">
-        <v>140</v>
+        <v>522</v>
       </c>
       <c r="D146" t="s">
-        <v>329</v>
+        <v>712</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3958,13 +5490,13 @@
         <v>141</v>
       </c>
       <c r="B147" t="s">
-        <v>141</v>
+        <v>332</v>
       </c>
       <c r="C147" t="s">
-        <v>141</v>
+        <v>523</v>
       </c>
       <c r="D147" t="s">
-        <v>330</v>
+        <v>713</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3972,13 +5504,13 @@
         <v>142</v>
       </c>
       <c r="B148" t="s">
-        <v>142</v>
+        <v>333</v>
       </c>
       <c r="C148" t="s">
-        <v>142</v>
+        <v>524</v>
       </c>
       <c r="D148" t="s">
-        <v>331</v>
+        <v>714</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3986,13 +5518,13 @@
         <v>143</v>
       </c>
       <c r="B149" t="s">
-        <v>143</v>
+        <v>334</v>
       </c>
       <c r="C149" t="s">
-        <v>143</v>
+        <v>525</v>
       </c>
       <c r="D149" t="s">
-        <v>332</v>
+        <v>715</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -4000,13 +5532,13 @@
         <v>144</v>
       </c>
       <c r="B150" t="s">
-        <v>144</v>
+        <v>335</v>
       </c>
       <c r="C150" t="s">
-        <v>144</v>
+        <v>526</v>
       </c>
       <c r="D150" t="s">
-        <v>333</v>
+        <v>716</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -4014,13 +5546,13 @@
         <v>145</v>
       </c>
       <c r="B151" t="s">
-        <v>145</v>
+        <v>336</v>
       </c>
       <c r="C151" t="s">
-        <v>145</v>
+        <v>527</v>
       </c>
       <c r="D151" t="s">
-        <v>334</v>
+        <v>717</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -4028,13 +5560,13 @@
         <v>146</v>
       </c>
       <c r="B152" t="s">
-        <v>146</v>
+        <v>337</v>
       </c>
       <c r="C152" t="s">
-        <v>146</v>
+        <v>528</v>
       </c>
       <c r="D152" t="s">
-        <v>335</v>
+        <v>718</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -4042,13 +5574,13 @@
         <v>147</v>
       </c>
       <c r="B153" t="s">
-        <v>147</v>
+        <v>338</v>
       </c>
       <c r="C153" t="s">
-        <v>147</v>
+        <v>529</v>
       </c>
       <c r="D153" t="s">
-        <v>336</v>
+        <v>719</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -4056,13 +5588,13 @@
         <v>148</v>
       </c>
       <c r="B154" t="s">
-        <v>148</v>
+        <v>339</v>
       </c>
       <c r="C154" t="s">
-        <v>148</v>
+        <v>530</v>
       </c>
       <c r="D154" t="s">
-        <v>337</v>
+        <v>720</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -4070,13 +5602,13 @@
         <v>149</v>
       </c>
       <c r="B155" t="s">
-        <v>149</v>
+        <v>340</v>
       </c>
       <c r="C155" t="s">
-        <v>149</v>
+        <v>531</v>
       </c>
       <c r="D155" t="s">
-        <v>338</v>
+        <v>721</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -4084,13 +5616,13 @@
         <v>150</v>
       </c>
       <c r="B156" t="s">
-        <v>150</v>
+        <v>341</v>
       </c>
       <c r="C156" t="s">
-        <v>150</v>
+        <v>532</v>
       </c>
       <c r="D156" t="s">
-        <v>339</v>
+        <v>722</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -4098,13 +5630,13 @@
         <v>151</v>
       </c>
       <c r="B157" t="s">
-        <v>151</v>
+        <v>342</v>
       </c>
       <c r="C157" t="s">
-        <v>151</v>
+        <v>533</v>
       </c>
       <c r="D157" t="s">
-        <v>340</v>
+        <v>723</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4112,13 +5644,13 @@
         <v>152</v>
       </c>
       <c r="B158" t="s">
-        <v>152</v>
+        <v>343</v>
       </c>
       <c r="C158" t="s">
-        <v>152</v>
+        <v>534</v>
       </c>
       <c r="D158" t="s">
-        <v>341</v>
+        <v>724</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4126,13 +5658,13 @@
         <v>153</v>
       </c>
       <c r="B159" t="s">
-        <v>153</v>
+        <v>344</v>
       </c>
       <c r="C159" t="s">
-        <v>153</v>
+        <v>535</v>
       </c>
       <c r="D159" t="s">
-        <v>342</v>
+        <v>725</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4140,13 +5672,13 @@
         <v>154</v>
       </c>
       <c r="B160" t="s">
-        <v>154</v>
+        <v>345</v>
       </c>
       <c r="C160" t="s">
-        <v>154</v>
+        <v>536</v>
       </c>
       <c r="D160" t="s">
-        <v>343</v>
+        <v>726</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4154,13 +5686,13 @@
         <v>155</v>
       </c>
       <c r="B161" t="s">
-        <v>155</v>
+        <v>346</v>
       </c>
       <c r="C161" t="s">
-        <v>155</v>
+        <v>537</v>
       </c>
       <c r="D161" t="s">
-        <v>344</v>
+        <v>727</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4168,13 +5700,13 @@
         <v>156</v>
       </c>
       <c r="B162" t="s">
-        <v>156</v>
+        <v>347</v>
       </c>
       <c r="C162" t="s">
-        <v>156</v>
+        <v>538</v>
       </c>
       <c r="D162" t="s">
-        <v>345</v>
+        <v>728</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4182,13 +5714,13 @@
         <v>157</v>
       </c>
       <c r="B163" t="s">
-        <v>157</v>
+        <v>348</v>
       </c>
       <c r="C163" t="s">
-        <v>157</v>
+        <v>539</v>
       </c>
       <c r="D163" t="s">
-        <v>346</v>
+        <v>729</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4196,13 +5728,13 @@
         <v>158</v>
       </c>
       <c r="B164" t="s">
-        <v>158</v>
+        <v>349</v>
       </c>
       <c r="C164" t="s">
-        <v>158</v>
+        <v>540</v>
       </c>
       <c r="D164" t="s">
-        <v>347</v>
+        <v>730</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4210,13 +5742,13 @@
         <v>159</v>
       </c>
       <c r="B165" t="s">
-        <v>159</v>
+        <v>350</v>
       </c>
       <c r="C165" t="s">
-        <v>159</v>
+        <v>541</v>
       </c>
       <c r="D165" t="s">
-        <v>348</v>
+        <v>731</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4224,13 +5756,13 @@
         <v>160</v>
       </c>
       <c r="B166" t="s">
-        <v>160</v>
+        <v>351</v>
       </c>
       <c r="C166" t="s">
-        <v>160</v>
+        <v>542</v>
       </c>
       <c r="D166" t="s">
-        <v>349</v>
+        <v>732</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4238,13 +5770,13 @@
         <v>161</v>
       </c>
       <c r="B167" t="s">
-        <v>161</v>
+        <v>352</v>
       </c>
       <c r="C167" t="s">
-        <v>161</v>
+        <v>543</v>
       </c>
       <c r="D167" t="s">
-        <v>350</v>
+        <v>733</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4252,13 +5784,13 @@
         <v>162</v>
       </c>
       <c r="B168" t="s">
-        <v>162</v>
+        <v>353</v>
       </c>
       <c r="C168" t="s">
-        <v>162</v>
+        <v>544</v>
       </c>
       <c r="D168" t="s">
-        <v>351</v>
+        <v>734</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4266,13 +5798,13 @@
         <v>163</v>
       </c>
       <c r="B169" t="s">
-        <v>163</v>
+        <v>354</v>
       </c>
       <c r="C169" t="s">
-        <v>163</v>
+        <v>545</v>
       </c>
       <c r="D169" t="s">
-        <v>352</v>
+        <v>735</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4280,13 +5812,13 @@
         <v>164</v>
       </c>
       <c r="B170" t="s">
-        <v>164</v>
+        <v>355</v>
       </c>
       <c r="C170" t="s">
-        <v>164</v>
+        <v>546</v>
       </c>
       <c r="D170" t="s">
-        <v>353</v>
+        <v>736</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4294,13 +5826,13 @@
         <v>165</v>
       </c>
       <c r="B171" t="s">
-        <v>165</v>
+        <v>356</v>
       </c>
       <c r="C171" t="s">
-        <v>165</v>
+        <v>547</v>
       </c>
       <c r="D171" t="s">
-        <v>354</v>
+        <v>737</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4308,13 +5840,13 @@
         <v>166</v>
       </c>
       <c r="B172" t="s">
-        <v>166</v>
+        <v>357</v>
       </c>
       <c r="C172" t="s">
-        <v>166</v>
+        <v>548</v>
       </c>
       <c r="D172" t="s">
-        <v>355</v>
+        <v>738</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4322,13 +5854,13 @@
         <v>167</v>
       </c>
       <c r="B173" t="s">
-        <v>167</v>
+        <v>358</v>
       </c>
       <c r="C173" t="s">
-        <v>167</v>
+        <v>549</v>
       </c>
       <c r="D173" t="s">
-        <v>356</v>
+        <v>739</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4336,13 +5868,13 @@
         <v>168</v>
       </c>
       <c r="B174" t="s">
-        <v>168</v>
+        <v>359</v>
       </c>
       <c r="C174" t="s">
-        <v>168</v>
+        <v>550</v>
       </c>
       <c r="D174" t="s">
-        <v>357</v>
+        <v>740</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4350,13 +5882,13 @@
         <v>169</v>
       </c>
       <c r="B175" t="s">
-        <v>169</v>
+        <v>360</v>
       </c>
       <c r="C175" t="s">
-        <v>169</v>
+        <v>551</v>
       </c>
       <c r="D175" t="s">
-        <v>358</v>
+        <v>741</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4364,13 +5896,13 @@
         <v>170</v>
       </c>
       <c r="B176" t="s">
-        <v>170</v>
+        <v>361</v>
       </c>
       <c r="C176" t="s">
-        <v>170</v>
+        <v>552</v>
       </c>
       <c r="D176" t="s">
-        <v>359</v>
+        <v>742</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4378,13 +5910,13 @@
         <v>171</v>
       </c>
       <c r="B177" t="s">
-        <v>171</v>
+        <v>362</v>
       </c>
       <c r="C177" t="s">
-        <v>171</v>
+        <v>553</v>
       </c>
       <c r="D177" t="s">
-        <v>360</v>
+        <v>743</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4392,13 +5924,13 @@
         <v>172</v>
       </c>
       <c r="B178" t="s">
-        <v>172</v>
+        <v>363</v>
       </c>
       <c r="C178" t="s">
-        <v>172</v>
+        <v>554</v>
       </c>
       <c r="D178" t="s">
-        <v>361</v>
+        <v>744</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4406,13 +5938,13 @@
         <v>173</v>
       </c>
       <c r="B179" t="s">
-        <v>173</v>
+        <v>364</v>
       </c>
       <c r="C179" t="s">
-        <v>173</v>
+        <v>555</v>
       </c>
       <c r="D179" t="s">
-        <v>362</v>
+        <v>745</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4420,13 +5952,13 @@
         <v>174</v>
       </c>
       <c r="B180" t="s">
-        <v>174</v>
+        <v>365</v>
       </c>
       <c r="C180" t="s">
-        <v>174</v>
+        <v>556</v>
       </c>
       <c r="D180" t="s">
-        <v>363</v>
+        <v>746</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4434,13 +5966,13 @@
         <v>175</v>
       </c>
       <c r="B181" t="s">
-        <v>175</v>
+        <v>366</v>
       </c>
       <c r="C181" t="s">
-        <v>175</v>
+        <v>557</v>
       </c>
       <c r="D181" t="s">
-        <v>364</v>
+        <v>747</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4448,13 +5980,13 @@
         <v>176</v>
       </c>
       <c r="B182" t="s">
-        <v>176</v>
+        <v>367</v>
       </c>
       <c r="C182" t="s">
-        <v>176</v>
+        <v>558</v>
       </c>
       <c r="D182" t="s">
-        <v>365</v>
+        <v>748</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4462,13 +5994,13 @@
         <v>177</v>
       </c>
       <c r="B183" t="s">
-        <v>177</v>
+        <v>368</v>
       </c>
       <c r="C183" t="s">
-        <v>177</v>
+        <v>559</v>
       </c>
       <c r="D183" t="s">
-        <v>366</v>
+        <v>749</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4476,13 +6008,13 @@
         <v>178</v>
       </c>
       <c r="B184" t="s">
-        <v>178</v>
+        <v>369</v>
       </c>
       <c r="C184" t="s">
-        <v>178</v>
+        <v>560</v>
       </c>
       <c r="D184" t="s">
-        <v>367</v>
+        <v>750</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4490,13 +6022,13 @@
         <v>179</v>
       </c>
       <c r="B185" t="s">
-        <v>179</v>
+        <v>370</v>
       </c>
       <c r="C185" t="s">
-        <v>179</v>
+        <v>561</v>
       </c>
       <c r="D185" t="s">
-        <v>368</v>
+        <v>751</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4504,13 +6036,13 @@
         <v>180</v>
       </c>
       <c r="B186" t="s">
-        <v>180</v>
+        <v>371</v>
       </c>
       <c r="C186" t="s">
-        <v>180</v>
+        <v>562</v>
       </c>
       <c r="D186" t="s">
-        <v>369</v>
+        <v>752</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4518,13 +6050,13 @@
         <v>88</v>
       </c>
       <c r="B187" t="s">
-        <v>88</v>
+        <v>278</v>
       </c>
       <c r="C187" t="s">
-        <v>88</v>
+        <v>563</v>
       </c>
       <c r="D187" t="s">
-        <v>252</v>
+        <v>635</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4532,13 +6064,13 @@
         <v>181</v>
       </c>
       <c r="B188" t="s">
-        <v>181</v>
+        <v>372</v>
       </c>
       <c r="C188" t="s">
-        <v>181</v>
+        <v>564</v>
       </c>
       <c r="D188" t="s">
-        <v>370</v>
+        <v>753</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4546,13 +6078,13 @@
         <v>182</v>
       </c>
       <c r="B189" t="s">
-        <v>182</v>
+        <v>373</v>
       </c>
       <c r="C189" t="s">
-        <v>182</v>
+        <v>565</v>
       </c>
       <c r="D189" t="s">
-        <v>371</v>
+        <v>754</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4560,13 +6092,13 @@
         <v>183</v>
       </c>
       <c r="B190" t="s">
-        <v>183</v>
+        <v>374</v>
       </c>
       <c r="C190" t="s">
-        <v>183</v>
+        <v>566</v>
       </c>
       <c r="D190" t="s">
-        <v>372</v>
+        <v>755</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4574,13 +6106,13 @@
         <v>184</v>
       </c>
       <c r="B191" t="s">
-        <v>184</v>
+        <v>375</v>
       </c>
       <c r="C191" t="s">
-        <v>184</v>
+        <v>567</v>
       </c>
       <c r="D191" t="s">
-        <v>373</v>
+        <v>756</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4588,13 +6120,13 @@
         <v>185</v>
       </c>
       <c r="B192" t="s">
-        <v>185</v>
+        <v>376</v>
       </c>
       <c r="C192" t="s">
-        <v>185</v>
+        <v>568</v>
       </c>
       <c r="D192" t="s">
-        <v>374</v>
+        <v>757</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4602,13 +6134,13 @@
         <v>186</v>
       </c>
       <c r="B193" t="s">
-        <v>186</v>
+        <v>377</v>
       </c>
       <c r="C193" t="s">
-        <v>186</v>
+        <v>569</v>
       </c>
       <c r="D193" t="s">
-        <v>375</v>
+        <v>758</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4616,13 +6148,13 @@
         <v>187</v>
       </c>
       <c r="B194" t="s">
-        <v>187</v>
+        <v>378</v>
       </c>
       <c r="C194" t="s">
-        <v>187</v>
+        <v>570</v>
       </c>
       <c r="D194" t="s">
-        <v>376</v>
+        <v>759</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4630,13 +6162,13 @@
         <v>188</v>
       </c>
       <c r="B195" t="s">
-        <v>188</v>
+        <v>379</v>
       </c>
       <c r="C195" t="s">
-        <v>188</v>
+        <v>571</v>
       </c>
       <c r="D195" t="s">
-        <v>377</v>
+        <v>760</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4644,13 +6176,13 @@
         <v>26</v>
       </c>
       <c r="B196" t="s">
-        <v>26</v>
+        <v>217</v>
       </c>
       <c r="C196" t="s">
-        <v>26</v>
+        <v>408</v>
       </c>
       <c r="D196" t="s">
-        <v>217</v>
+        <v>600</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4658,13 +6190,13 @@
         <v>189</v>
       </c>
       <c r="B197" t="s">
-        <v>189</v>
+        <v>380</v>
       </c>
       <c r="C197" t="s">
-        <v>189</v>
+        <v>572</v>
       </c>
       <c r="D197" t="s">
-        <v>378</v>
+        <v>761</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4672,13 +6204,13 @@
         <v>190</v>
       </c>
       <c r="B198" t="s">
-        <v>190</v>
+        <v>381</v>
       </c>
       <c r="C198" t="s">
-        <v>190</v>
+        <v>573</v>
       </c>
       <c r="D198" t="s">
-        <v>379</v>
+        <v>762</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4686,13 +6218,13 @@
         <v>191</v>
       </c>
       <c r="B199" t="s">
-        <v>191</v>
+        <v>382</v>
       </c>
       <c r="C199" t="s">
-        <v>191</v>
+        <v>574</v>
       </c>
       <c r="D199" t="s">
-        <v>380</v>
+        <v>763</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4700,13 +6232,13 @@
         <v>192</v>
       </c>
       <c r="B200" t="s">
-        <v>192</v>
+        <v>383</v>
       </c>
       <c r="C200" t="s">
-        <v>192</v>
+        <v>575</v>
       </c>
       <c r="D200" t="s">
-        <v>381</v>
+        <v>764</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4714,13 +6246,13 @@
         <v>193</v>
       </c>
       <c r="B201" t="s">
-        <v>193</v>
+        <v>384</v>
       </c>
       <c r="C201" t="s">
-        <v>193</v>
+        <v>576</v>
       </c>
       <c r="D201" t="s">
-        <v>382</v>
+        <v>765</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4728,13 +6260,13 @@
         <v>194</v>
       </c>
       <c r="B202" t="s">
-        <v>194</v>
+        <v>385</v>
       </c>
       <c r="C202" t="s">
-        <v>194</v>
+        <v>577</v>
       </c>
       <c r="D202" t="s">
-        <v>383</v>
+        <v>766</v>
       </c>
     </row>
   </sheetData>

--- a/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_lava_1_1.xlsx
+++ b/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_lava_1_1.xlsx
@@ -2812,7 +2812,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="라바"]비슷해. 다행히 나중에 만난 상단이 라이타니아 근처까지 데려다줬어.
+    <t xml:space="preserve">[name="라바"]비슷해. 다행히 나중에 만난 상단이 라이타니엔 근처까지 데려다줬어.
 </t>
   </si>
   <si>
@@ -2828,7 +2828,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="쿠오라"]바보! 라바는 바보야! 길을 잃고 빅토리아에서 라이타니아까지 걸어가는 사람이 어디 있어? 하하하.
+    <t xml:space="preserve">[name="쿠오라"]바보! 라바는 바보야! 길을 잃고 빅토리아에서 라이타니엔까지 걸어가는 사람이 어디 있어? 하하하.
 </t>
   </si>
   <si>
@@ -2840,7 +2840,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="라바"]상단을 따라 라이타니아까지 걸어오지 않았다면, 선생님도 못 만나고 음악도 못 배웠을 거야. 지금 오리지늄 아츠 배우는 것도 쉽지 않았을걸!
+    <t xml:space="preserve">[name="라바"]상단을 따라 라이타니엔까지 걸어오지 않았다면, 선생님도 못 만나고 음악도 못 배웠을 거야. 지금 오리지늄 아츠 배우는 것도 쉽지 않았을걸!
 </t>
   </si>
   <si>
